--- a/test_files/a_all_pass_validation-v1.3.1.xlsx
+++ b/test_files/a_all_pass_validation-v1.3.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burkesv/CCDI/CancerDataServices-SubmissionValidation-R_WORKING/test_files_v1.3.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burkesv/CancerDataServices-CDS_to_dbGaP/test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6083F1E6-3692-8043-92EB-7CEBA9366814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481E4200-000A-234B-AF33-3848CB68EA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4360" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{9B1798FB-E631-DB49-8D33-11EDA4C72D26}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10580" uniqueCount="10000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10580" uniqueCount="9998">
   <si>
     <t>CDS SUBMISSION METADATA TEMPLATE</t>
   </si>
@@ -29956,9 +29956,6 @@
     <t>Radiology</t>
   </si>
   <si>
-    <t>['phs654321']</t>
-  </si>
-  <si>
     <t>i@i.com</t>
   </si>
   <si>
@@ -29984,9 +29981,6 @@
   </si>
   <si>
     <t>WES</t>
-  </si>
-  <si>
-    <t>['phs876543']</t>
   </si>
   <si>
     <t>Myself</t>
@@ -30255,7 +30249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -30295,12 +30289,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -30314,7 +30303,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -30322,14 +30311,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -30340,8 +30325,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -30673,23 +30656,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11" style="21"/>
-    <col min="3" max="3" width="28.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="24" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="21"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" t="s">
         <v>9913</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -30700,12 +30681,12 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
-      <c r="B5" s="21" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="21" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -30715,12 +30696,12 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="21" t="s">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="21" t="s">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -30731,7 +30712,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
-      <c r="B15" s="21" t="s">
+      <c r="B15" t="s">
         <v>9912</v>
       </c>
     </row>
@@ -30750,7 +30731,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" t="s">
         <v>9799</v>
       </c>
     </row>
@@ -30758,115 +30739,115 @@
       <c r="A21" s="9"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="21" t="s">
+      <c r="B22" t="s">
         <v>9800</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" t="s">
         <v>9797</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="32" t="s">
         <v>9795</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" t="s">
         <v>9933</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="32" t="s">
         <v>9794</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" t="s">
         <v>9934</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="32" t="s">
         <v>9793</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" t="s">
         <v>9935</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="32" t="s">
         <v>9796</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" t="s">
         <v>9936</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="21" t="s">
+      <c r="B30" t="s">
         <v>9937</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="32" t="s">
         <v>9923</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" t="s">
         <v>9939</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="32" t="s">
         <v>9938</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" t="s">
         <v>9940</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="32" t="s">
         <v>9925</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" t="s">
         <v>9798</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="32" t="s">
         <v>9921</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" t="s">
         <v>9941</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="32" t="s">
         <v>9926</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" t="s">
         <v>9942</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="32" t="s">
         <v>9922</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" t="s">
         <v>9943</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="24" t="s">
+      <c r="B38" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C39" s="21" t="s">
+      <c r="C39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C40" s="21" t="s">
+      <c r="C40" t="s">
         <v>15</v>
       </c>
     </row>
@@ -30876,22 +30857,22 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="21" t="s">
+      <c r="B44" t="s">
         <v>9944</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="21" t="s">
+      <c r="B45" t="s">
         <v>9945</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="21" t="s">
+      <c r="B46" t="s">
         <v>9788</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="21" t="s">
+      <c r="B47" t="s">
         <v>17</v>
       </c>
     </row>
@@ -30901,27 +30882,27 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="21" t="s">
+      <c r="B51" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="21" t="s">
+      <c r="B52" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="21" t="s">
+      <c r="B53" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="21" t="s">
+      <c r="B54" t="s">
         <v>9915</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="21" t="s">
+      <c r="B55" t="s">
         <v>29</v>
       </c>
     </row>
@@ -30931,17 +30912,17 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="21" t="s">
+      <c r="B59" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="21" t="s">
+      <c r="B60" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="21" t="s">
+      <c r="B61" t="s">
         <v>33</v>
       </c>
     </row>
@@ -30951,47 +30932,47 @@
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="21" t="s">
+      <c r="B65" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B66" s="21" t="s">
+      <c r="B66" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C66" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" s="21" t="s">
+      <c r="B67" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="21" t="s">
+      <c r="B68" t="s">
         <v>9801</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" t="s">
         <v>9785</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="21" t="s">
+      <c r="C69" t="s">
         <v>9802</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B70" s="21" t="s">
+      <c r="B70" t="s">
         <v>9910</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" t="s">
         <v>9914</v>
       </c>
     </row>
@@ -31004,395 +30985,393 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA8C985-DF33-3E49-A37A-52651F205350}">
   <dimension ref="A1:CQ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="21"/>
-    <col min="2" max="2" width="17.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="36" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.1640625" style="21" customWidth="1"/>
-    <col min="16" max="16" width="18.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="37" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.6640625" style="21" customWidth="1"/>
-    <col min="23" max="23" width="20.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30" style="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="34.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6" style="21" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="20.6640625" style="21" customWidth="1"/>
-    <col min="35" max="35" width="11" style="21" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15" style="21" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="25" style="21" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="26" style="21" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="30.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="28.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="6.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="11.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="32.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="24.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="21.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="21.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="34.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="49.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="7.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="20.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="19.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="35.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="27.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="15.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="15" style="21" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="13.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="21.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="25.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="21.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="14.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="30.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="32.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="15.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="26.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="27.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="28" style="21" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="31.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="23.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="40.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="30.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="29.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="15.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="18.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="22.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="23.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="22.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="96" max="16384" width="11" style="21"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.1640625" customWidth="1"/>
+    <col min="16" max="16" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" customWidth="1"/>
+    <col min="23" max="23" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="20.6640625" customWidth="1"/>
+    <col min="35" max="35" width="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="25" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="49.83203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="15" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="28" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="31" t="s">
         <v>9786</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="32" t="s">
         <v>9923</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="32" t="s">
         <v>9924</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="W1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="X1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="34" t="s">
+      <c r="Y1" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="34" t="s">
+      <c r="Z1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" s="37" t="s">
+      <c r="AA1" s="32" t="s">
         <v>9795</v>
       </c>
-      <c r="AB1" s="35" t="s">
+      <c r="AB1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="35" t="s">
+      <c r="AC1" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="36" t="s">
+      <c r="AD1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="AE1" s="36" t="s">
+      <c r="AE1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="AF1" s="36" t="s">
+      <c r="AF1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="AG1" s="36" t="s">
+      <c r="AG1" s="31" t="s">
         <v>9919</v>
       </c>
-      <c r="AH1" s="36" t="s">
+      <c r="AH1" s="31" t="s">
         <v>9911</v>
       </c>
-      <c r="AI1" s="37" t="s">
+      <c r="AI1" s="32" t="s">
         <v>9794</v>
       </c>
-      <c r="AJ1" s="33" t="s">
+      <c r="AJ1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="34" t="s">
+      <c r="AK1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="AL1" s="34" t="s">
+      <c r="AL1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="AM1" s="33" t="s">
+      <c r="AM1" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="AN1" s="37" t="s">
+      <c r="AN1" s="32" t="s">
         <v>9925</v>
       </c>
-      <c r="AO1" s="34" t="s">
+      <c r="AO1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="AP1" s="34" t="s">
+      <c r="AP1" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AQ1" s="34" t="s">
+      <c r="AQ1" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="AR1" s="34" t="s">
+      <c r="AR1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AS1" s="38" t="s">
+      <c r="AS1" s="32" t="s">
         <v>9793</v>
       </c>
-      <c r="AT1" s="33" t="s">
+      <c r="AT1" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="AU1" s="33" t="s">
+      <c r="AU1" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="AV1" s="33" t="s">
+      <c r="AV1" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AW1" s="33" t="s">
+      <c r="AW1" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="AX1" s="33" t="s">
+      <c r="AX1" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="AY1" s="41" t="s">
+      <c r="AY1" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="AZ1" s="34" t="s">
+      <c r="AZ1" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="BA1" s="34" t="s">
+      <c r="BA1" s="31" t="s">
         <v>9783</v>
       </c>
-      <c r="BB1" s="38" t="s">
+      <c r="BB1" s="32" t="s">
         <v>9796</v>
       </c>
-      <c r="BC1" s="33" t="s">
+      <c r="BC1" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="BD1" s="34" t="s">
+      <c r="BD1" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="BE1" s="33" t="s">
+      <c r="BE1" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="BF1" s="34" t="s">
+      <c r="BF1" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="BG1" s="33" t="s">
+      <c r="BG1" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="BH1" s="33" t="s">
+      <c r="BH1" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="BI1" s="34" t="s">
+      <c r="BI1" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="BJ1" s="34" t="s">
+      <c r="BJ1" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="BK1" s="33" t="s">
+      <c r="BK1" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="BL1" s="34" t="s">
+      <c r="BL1" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="BM1" s="34" t="s">
+      <c r="BM1" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="BN1" s="34" t="s">
+      <c r="BN1" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="BO1" s="34" t="s">
+      <c r="BO1" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="BP1" s="34" t="s">
+      <c r="BP1" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="BQ1" s="34" t="s">
+      <c r="BQ1" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="BR1" s="38" t="s">
+      <c r="BR1" s="32" t="s">
         <v>9921</v>
       </c>
-      <c r="BS1" s="33" t="s">
+      <c r="BS1" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="BT1" s="33" t="s">
+      <c r="BT1" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="BU1" s="34" t="s">
+      <c r="BU1" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="BV1" s="34" t="s">
+      <c r="BV1" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="BW1" s="38" t="s">
+      <c r="BW1" s="32" t="s">
         <v>9926</v>
       </c>
-      <c r="BX1" s="34" t="s">
+      <c r="BX1" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="BY1" s="34" t="s">
+      <c r="BY1" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="BZ1" s="34" t="s">
+      <c r="BZ1" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="CA1" s="34" t="s">
+      <c r="CA1" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="CB1" s="34" t="s">
+      <c r="CB1" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="CC1" s="34" t="s">
+      <c r="CC1" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="CD1" s="34" t="s">
+      <c r="CD1" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="CE1" s="34" t="s">
+      <c r="CE1" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="CF1" s="34" t="s">
+      <c r="CF1" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="CG1" s="34" t="s">
+      <c r="CG1" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="CH1" s="34" t="s">
+      <c r="CH1" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="CI1" s="34" t="s">
+      <c r="CI1" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="CJ1" s="34" t="s">
+      <c r="CJ1" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="CK1" s="34" t="s">
+      <c r="CK1" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="CL1" s="39" t="s">
+      <c r="CL1" s="33" t="s">
         <v>9922</v>
       </c>
-      <c r="CM1" s="34" t="s">
+      <c r="CM1" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="CN1" s="34" t="s">
+      <c r="CN1" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="CO1" s="34" t="s">
+      <c r="CO1" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="CP1" s="34" t="s">
+      <c r="CP1" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="CQ1" s="34" t="s">
+      <c r="CQ1" s="31" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:95" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>9951</v>
       </c>
@@ -31400,7 +31379,7 @@
         <v>9951</v>
       </c>
       <c r="D2" t="s">
-        <v>9997</v>
+        <v>9995</v>
       </c>
       <c r="E2">
         <v>55</v>
@@ -31420,7 +31399,7 @@
       <c r="J2" t="s">
         <v>9953</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>9954</v>
       </c>
       <c r="AB2">
@@ -31469,7 +31448,7 @@
         <v>9961</v>
       </c>
     </row>
-    <row r="3" spans="1:95" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>9951</v>
       </c>
@@ -31477,7 +31456,7 @@
         <v>9951</v>
       </c>
       <c r="D3" t="s">
-        <v>9997</v>
+        <v>9995</v>
       </c>
       <c r="E3">
         <v>55</v>
@@ -31497,7 +31476,7 @@
       <c r="J3" t="s">
         <v>9953</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="26" t="s">
         <v>9954</v>
       </c>
       <c r="AB3">
@@ -31546,7 +31525,7 @@
         <v>9961</v>
       </c>
     </row>
-    <row r="4" spans="1:95" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9951</v>
       </c>
@@ -31554,7 +31533,7 @@
         <v>9951</v>
       </c>
       <c r="D4" t="s">
-        <v>9997</v>
+        <v>9995</v>
       </c>
       <c r="E4">
         <v>55</v>
@@ -31574,7 +31553,7 @@
       <c r="J4" t="s">
         <v>9953</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="26" t="s">
         <v>9954</v>
       </c>
       <c r="AB4">
@@ -31623,15 +31602,15 @@
         <v>9961</v>
       </c>
     </row>
-    <row r="5" spans="1:95" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>9970</v>
+        <v>9951</v>
       </c>
       <c r="C5" t="s">
         <v>9970</v>
       </c>
       <c r="D5" t="s">
-        <v>9998</v>
+        <v>9996</v>
       </c>
       <c r="E5">
         <v>42</v>
@@ -31646,16 +31625,16 @@
         <v>9971</v>
       </c>
       <c r="I5" t="s">
-        <v>9972</v>
+        <v>9952</v>
       </c>
       <c r="J5" t="s">
         <v>9813</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="26" t="s">
+        <v>9972</v>
+      </c>
+      <c r="AB5" t="s">
         <v>9973</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>9974</v>
       </c>
       <c r="AC5" t="s">
         <v>9899</v>
@@ -31664,25 +31643,25 @@
         <v>9902</v>
       </c>
       <c r="AJ5" t="s">
-        <v>9975</v>
+        <v>9974</v>
       </c>
       <c r="AM5" t="s">
         <v>4736</v>
       </c>
       <c r="AT5" t="s">
+        <v>9975</v>
+      </c>
+      <c r="AU5" t="s">
         <v>9976</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>9977</v>
       </c>
       <c r="AV5">
         <v>6548943487</v>
       </c>
       <c r="AW5" t="s">
+        <v>9977</v>
+      </c>
+      <c r="AX5" t="s">
         <v>9978</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>9979</v>
       </c>
       <c r="BC5">
         <v>5</v>
@@ -31700,15 +31679,15 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:95" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>9980</v>
+        <v>9951</v>
       </c>
       <c r="C6" t="s">
-        <v>9980</v>
+        <v>9979</v>
       </c>
       <c r="D6" t="s">
-        <v>9999</v>
+        <v>9997</v>
       </c>
       <c r="E6">
         <v>76</v>
@@ -31720,19 +31699,19 @@
         <v>316</v>
       </c>
       <c r="H6" t="s">
+        <v>9980</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9952</v>
+      </c>
+      <c r="J6" t="s">
         <v>9981</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" s="26" t="s">
         <v>9982</v>
       </c>
-      <c r="J6" t="s">
+      <c r="AB6" t="s">
         <v>9983</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>9984</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>9985</v>
       </c>
       <c r="AC6" t="s">
         <v>311</v>
@@ -31747,22 +31726,22 @@
         <v>4735</v>
       </c>
       <c r="AT6" t="s">
-        <v>9986</v>
+        <v>9984</v>
       </c>
       <c r="AU6" t="s">
-        <v>9987</v>
+        <v>9985</v>
       </c>
       <c r="AV6">
         <v>6541</v>
       </c>
       <c r="AW6" t="s">
+        <v>9986</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>9987</v>
+      </c>
+      <c r="BC6" t="s">
         <v>9988</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>9989</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>9990</v>
       </c>
       <c r="BE6" t="s">
         <v>388</v>
@@ -31774,18 +31753,18 @@
         <v>471</v>
       </c>
       <c r="BK6" t="s">
-        <v>9991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:95" customFormat="1" x14ac:dyDescent="0.2">
+        <v>9989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>9970</v>
+        <v>9951</v>
       </c>
       <c r="C7" t="s">
         <v>9970</v>
       </c>
       <c r="D7" t="s">
-        <v>9998</v>
+        <v>9996</v>
       </c>
       <c r="E7">
         <v>42</v>
@@ -31800,16 +31779,16 @@
         <v>9971</v>
       </c>
       <c r="I7" t="s">
-        <v>9972</v>
+        <v>9952</v>
       </c>
       <c r="J7" t="s">
         <v>9813</v>
       </c>
-      <c r="K7" s="29" t="s">
-        <v>9973</v>
+      <c r="K7" s="26" t="s">
+        <v>9972</v>
       </c>
       <c r="AB7" t="s">
-        <v>9992</v>
+        <v>9990</v>
       </c>
       <c r="AC7" t="s">
         <v>9900</v>
@@ -31818,25 +31797,25 @@
         <v>9906</v>
       </c>
       <c r="AJ7" t="s">
-        <v>9993</v>
+        <v>9991</v>
       </c>
       <c r="AM7" t="s">
         <v>4774</v>
       </c>
       <c r="AT7" t="s">
-        <v>9994</v>
+        <v>9992</v>
       </c>
       <c r="AU7" t="s">
-        <v>9977</v>
+        <v>9976</v>
       </c>
       <c r="AV7">
         <v>5486874487</v>
       </c>
       <c r="AW7" t="s">
-        <v>9995</v>
+        <v>9993</v>
       </c>
       <c r="AX7" t="s">
-        <v>9996</v>
+        <v>9994</v>
       </c>
       <c r="BC7">
         <v>2</v>
@@ -31890,9 +31869,9 @@
     <col min="7" max="7" width="24.5" customWidth="1"/>
     <col min="8" max="8" width="40.1640625" customWidth="1"/>
     <col min="9" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="13" style="26" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="26" customWidth="1"/>
-    <col min="14" max="14" width="11" style="26"/>
+    <col min="12" max="12" width="13" style="23" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="11" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -31927,13 +31906,13 @@
         <v>9784</v>
       </c>
       <c r="K1" s="1"/>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="22" t="s">
         <v>122</v>
       </c>
     </row>
@@ -31955,7 +31934,7 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>41</v>
       </c>
       <c r="C3" t="s">
@@ -31973,17 +31952,17 @@
       <c r="H3" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="30" t="s">
         <v>9946</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="N3" s="44" t="s">
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="N3" s="37" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="30" t="s">
         <v>42</v>
       </c>
       <c r="C4" t="s">
@@ -31998,17 +31977,17 @@
       <c r="H4" s="7" t="s">
         <v>9790</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="30" t="s">
         <v>9946</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="N4" s="44" t="s">
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="N4" s="37" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="31" t="s">
         <v>9786</v>
       </c>
       <c r="C5" t="s">
@@ -32023,11 +32002,11 @@
       <c r="H5" t="s">
         <v>9804</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="30" t="s">
         <v>166</v>
       </c>
       <c r="C6" t="s">
@@ -32045,17 +32024,17 @@
       <c r="H6">
         <v>2000</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="30" t="s">
         <v>9946</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="N6" s="44" t="s">
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="N6" s="37" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="30" t="s">
         <v>52</v>
       </c>
       <c r="C7" t="s">
@@ -32073,17 +32052,17 @@
       <c r="H7">
         <v>4000</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="30" t="s">
         <v>9946</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="N7" s="45" t="s">
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="N7" s="38" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="30" t="s">
         <v>53</v>
       </c>
       <c r="C8" t="s">
@@ -32101,20 +32080,20 @@
       <c r="H8" t="s">
         <v>174</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="30" t="s">
         <v>9946</v>
       </c>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="31">
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="28">
         <v>6944407</v>
       </c>
-      <c r="N8" s="44" t="s">
+      <c r="N8" s="37" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C9" t="s">
@@ -32132,17 +32111,17 @@
       <c r="H9" t="s">
         <v>178</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="30" t="s">
         <v>9946</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="N9" s="45" t="s">
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="N9" s="38" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="30" t="s">
         <v>55</v>
       </c>
       <c r="C10" t="s">
@@ -32163,17 +32142,17 @@
       <c r="H10" t="s">
         <v>9950</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="30" t="s">
         <v>9946</v>
       </c>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="N10" s="44" t="s">
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="N10" s="37" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
@@ -32188,20 +32167,20 @@
       <c r="H11" t="s">
         <v>133</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="30" t="s">
         <v>9946</v>
       </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="31">
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="28">
         <v>1848</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="28">
         <v>6974944</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
@@ -32216,17 +32195,17 @@
       <c r="H12" t="s">
         <v>136</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="30" t="s">
         <v>9946</v>
       </c>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="31">
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="28">
         <v>2661018</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
@@ -32238,11 +32217,11 @@
       <c r="E13" t="s">
         <v>127</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
@@ -32254,14 +32233,14 @@
       <c r="E14" t="s">
         <v>135</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="31">
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="28">
         <v>3717994</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="31" t="s">
         <v>43</v>
       </c>
       <c r="C15" t="s">
@@ -32279,7 +32258,7 @@
       <c r="H15" t="s">
         <v>141</v>
       </c>
-      <c r="N15" s="44" t="s">
+      <c r="N15" s="37" t="s">
         <v>142</v>
       </c>
     </row>
@@ -32301,7 +32280,7 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="31" t="s">
         <v>44</v>
       </c>
       <c r="C18" t="s">
@@ -32319,12 +32298,12 @@
       <c r="H18" t="s">
         <v>146</v>
       </c>
-      <c r="N18" s="45" t="s">
+      <c r="N18" s="38" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="31" t="s">
         <v>45</v>
       </c>
       <c r="C19" t="s">
@@ -32339,12 +32318,12 @@
       <c r="H19" t="s">
         <v>149</v>
       </c>
-      <c r="N19" s="44" t="s">
+      <c r="N19" s="37" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="31" t="s">
         <v>46</v>
       </c>
       <c r="C20" t="s">
@@ -32356,12 +32335,12 @@
       <c r="E20" t="s">
         <v>127</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="28">
         <v>3434057</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="31" t="s">
         <v>47</v>
       </c>
       <c r="C21" t="s">
@@ -32378,7 +32357,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="31" t="s">
         <v>48</v>
       </c>
       <c r="C22" t="s">
@@ -32393,12 +32372,12 @@
       <c r="H22" t="s">
         <v>156</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="28">
         <v>2649415</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C23" t="s">
@@ -32432,7 +32411,7 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="31" t="s">
         <v>50</v>
       </c>
       <c r="C26" t="s">
@@ -32449,15 +32428,15 @@
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="31">
+      <c r="L26" s="28">
         <v>6118266</v>
       </c>
-      <c r="N26" s="45" t="s">
+      <c r="N26" s="38" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="31" t="s">
         <v>51</v>
       </c>
       <c r="C27" t="s">
@@ -32477,12 +32456,12 @@
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="N27" s="44" t="s">
+      <c r="N27" s="37" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C28" t="s">
@@ -32500,14 +32479,14 @@
       <c r="H28" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="N28" s="45" t="s">
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="N28" s="38" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="31" t="s">
         <v>57</v>
       </c>
       <c r="C29" t="s">
@@ -32527,10 +32506,10 @@
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="31">
+      <c r="L29" s="28">
         <v>6115806</v>
       </c>
-      <c r="N29" s="45" t="s">
+      <c r="N29" s="38" t="s">
         <v>191</v>
       </c>
     </row>
@@ -32557,7 +32536,7 @@
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="30" t="s">
         <v>23</v>
       </c>
       <c r="C32" t="s">
@@ -32569,17 +32548,17 @@
       <c r="E32" t="s">
         <v>127</v>
       </c>
-      <c r="I32" s="33" t="s">
+      <c r="I32" s="30" t="s">
         <v>9947</v>
       </c>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="31">
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="28">
         <v>6867052</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="30" t="s">
         <v>58</v>
       </c>
       <c r="C33" t="s">
@@ -32597,17 +32576,17 @@
       <c r="H33" t="s">
         <v>195</v>
       </c>
-      <c r="I33" s="33" t="s">
+      <c r="I33" s="30" t="s">
         <v>9947</v>
       </c>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="27">
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="24">
         <v>2200604</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="31" t="s">
         <v>59</v>
       </c>
       <c r="C34" t="s">
@@ -32626,15 +32605,15 @@
         <v>197</v>
       </c>
       <c r="I34" s="7"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="27">
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="24">
         <v>2192199</v>
       </c>
-      <c r="N34" s="44"/>
+      <c r="N34" s="37"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="31" t="s">
         <v>60</v>
       </c>
       <c r="C35" t="s">
@@ -32653,15 +32632,15 @@
         <v>199</v>
       </c>
       <c r="I35" s="7"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="27">
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="24">
         <v>2192217</v>
       </c>
-      <c r="N35" s="44"/>
+      <c r="N35" s="37"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="31" t="s">
         <v>61</v>
       </c>
       <c r="C36" t="s">
@@ -32676,7 +32655,7 @@
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="31" t="s">
         <v>9919</v>
       </c>
       <c r="C37" t="s">
@@ -32691,7 +32670,7 @@
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="31" t="s">
         <v>9911</v>
       </c>
       <c r="C38" t="s">
@@ -32728,7 +32707,7 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="30" t="s">
         <v>24</v>
       </c>
       <c r="C41" t="s">
@@ -32740,14 +32719,14 @@
       <c r="E41" t="s">
         <v>127</v>
       </c>
-      <c r="I41" s="33" t="s">
+      <c r="I41" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
     </row>
     <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="31" t="s">
         <v>62</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -32759,15 +32738,15 @@
       <c r="E42" t="s">
         <v>127</v>
       </c>
-      <c r="L42" s="31">
+      <c r="L42" s="28">
         <v>2003907</v>
       </c>
-      <c r="M42" s="31">
+      <c r="M42" s="28">
         <v>5432687</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="31" t="s">
         <v>63</v>
       </c>
       <c r="C43" t="s">
@@ -32786,15 +32765,15 @@
         <v>204</v>
       </c>
       <c r="I43" s="7"/>
-      <c r="L43" s="31">
+      <c r="L43" s="28">
         <v>2230047</v>
       </c>
-      <c r="N43" s="44" t="s">
+      <c r="N43" s="37" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="30" t="s">
         <v>64</v>
       </c>
       <c r="C44" t="s">
@@ -32812,18 +32791,18 @@
       <c r="H44" t="s">
         <v>207</v>
       </c>
-      <c r="I44" s="33" t="s">
+      <c r="I44" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="27">
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="24">
         <v>3111302</v>
       </c>
-      <c r="N44" s="44"/>
+      <c r="N44" s="37"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B45" s="43"/>
+      <c r="B45" s="36"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
@@ -32843,7 +32822,7 @@
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="31" t="s">
         <v>65</v>
       </c>
       <c r="C48" t="s">
@@ -32861,13 +32840,13 @@
       <c r="H48" t="s">
         <v>210</v>
       </c>
-      <c r="L48" s="27">
+      <c r="L48" s="24">
         <v>5432687</v>
       </c>
-      <c r="N48" s="44"/>
+      <c r="N48" s="37"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="31" t="s">
         <v>66</v>
       </c>
       <c r="C49" t="s">
@@ -32890,13 +32869,13 @@
         <v>4566</v>
       </c>
       <c r="K49" s="5"/>
-      <c r="L49" s="27">
+      <c r="L49" s="24">
         <v>4742851</v>
       </c>
-      <c r="N49" s="44"/>
+      <c r="N49" s="37"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="31" t="s">
         <v>67</v>
       </c>
       <c r="C50" t="s">
@@ -32914,12 +32893,12 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="28">
+      <c r="L50" s="25">
         <v>3008340</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="31" t="s">
         <v>68</v>
       </c>
       <c r="C51" t="s">
@@ -32931,10 +32910,10 @@
       <c r="E51" t="s">
         <v>127</v>
       </c>
-      <c r="L51" s="31">
+      <c r="L51" s="28">
         <v>5581201</v>
       </c>
-      <c r="M51" s="31">
+      <c r="M51" s="28">
         <v>5220155</v>
       </c>
     </row>
@@ -32956,7 +32935,7 @@
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="30" t="s">
         <v>69</v>
       </c>
       <c r="C54" t="s">
@@ -32968,20 +32947,20 @@
       <c r="E54" t="s">
         <v>127</v>
       </c>
-      <c r="I54" s="33" t="s">
+      <c r="I54" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="31">
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="28">
         <v>6115804</v>
       </c>
-      <c r="M54" s="31">
+      <c r="M54" s="28">
         <v>7787681</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="30" t="s">
         <v>70</v>
       </c>
       <c r="C55" t="s">
@@ -32996,20 +32975,20 @@
       <c r="H55" t="s">
         <v>9917</v>
       </c>
-      <c r="I55" s="33" t="s">
+      <c r="I55" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="31">
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="28">
         <v>6983162</v>
       </c>
-      <c r="M55" s="31">
+      <c r="M55" s="28">
         <v>7797710</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="30" t="s">
         <v>71</v>
       </c>
       <c r="C56" t="s">
@@ -33027,20 +33006,20 @@
       <c r="H56" t="s">
         <v>220</v>
       </c>
-      <c r="I56" s="33" t="s">
+      <c r="I56" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="31">
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="28">
         <v>6115806</v>
       </c>
-      <c r="N56" s="45" t="s">
+      <c r="N56" s="38" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="30" t="s">
         <v>72</v>
       </c>
       <c r="C57" t="s">
@@ -33055,14 +33034,14 @@
       <c r="H57" t="s">
         <v>223</v>
       </c>
-      <c r="I57" s="33" t="s">
+      <c r="I57" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="30" t="s">
         <v>75</v>
       </c>
       <c r="C58" t="s">
@@ -33077,20 +33056,20 @@
       <c r="F58" t="s">
         <v>229</v>
       </c>
-      <c r="H58" s="29" t="s">
+      <c r="H58" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="I58" s="33" t="s">
+      <c r="I58" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J58" s="43"/>
-      <c r="K58" s="43"/>
-      <c r="N58" s="46" t="s">
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="N58" s="27" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B59" s="47" t="s">
+      <c r="B59" s="34" t="s">
         <v>73</v>
       </c>
       <c r="C59" t="s">
@@ -33102,12 +33081,12 @@
       <c r="E59" t="s">
         <v>127</v>
       </c>
-      <c r="L59" s="31">
+      <c r="L59" s="28">
         <v>6115805</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="31" t="s">
         <v>74</v>
       </c>
       <c r="C60" t="s">
@@ -33127,7 +33106,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="31" t="s">
         <v>9783</v>
       </c>
       <c r="C61" t="s">
@@ -33165,7 +33144,7 @@
       <c r="K63" s="2"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B64" s="33" t="s">
+      <c r="B64" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C64" t="s">
@@ -33180,17 +33159,17 @@
       <c r="F64" t="s">
         <v>233</v>
       </c>
-      <c r="I64" s="33" t="s">
+      <c r="I64" s="30" t="s">
         <v>9948</v>
       </c>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="N64" s="46" t="s">
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="N64" s="27" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="31" t="s">
         <v>77</v>
       </c>
       <c r="C65" t="s">
@@ -33209,13 +33188,13 @@
         <v>236</v>
       </c>
       <c r="I65" s="7"/>
-      <c r="L65" s="31">
+      <c r="L65" s="28">
         <v>6273393</v>
       </c>
-      <c r="N65" s="46"/>
+      <c r="N65" s="27"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C66" t="s">
@@ -33233,20 +33212,20 @@
       <c r="H66" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="I66" s="33" t="s">
+      <c r="I66" s="30" t="s">
         <v>9948</v>
       </c>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="31">
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="28">
         <v>6285979</v>
       </c>
-      <c r="N66" s="46" t="s">
+      <c r="N66" s="27" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="31" t="s">
         <v>79</v>
       </c>
       <c r="C67" t="s">
@@ -33265,13 +33244,13 @@
         <v>241</v>
       </c>
       <c r="I67" s="7"/>
-      <c r="L67" s="31">
+      <c r="L67" s="28">
         <v>6347743</v>
       </c>
-      <c r="N67" s="46"/>
+      <c r="N67" s="27"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="30" t="s">
         <v>80</v>
       </c>
       <c r="C68" t="s">
@@ -33289,17 +33268,17 @@
       <c r="H68" t="s">
         <v>244</v>
       </c>
-      <c r="I68" s="33" t="s">
+      <c r="I68" s="30" t="s">
         <v>9948</v>
       </c>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-      <c r="N68" s="46" t="s">
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="N68" s="27" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="30" t="s">
         <v>81</v>
       </c>
       <c r="C69" t="s">
@@ -33317,20 +33296,20 @@
       <c r="H69" t="s">
         <v>247</v>
       </c>
-      <c r="I69" s="33" t="s">
+      <c r="I69" s="30" t="s">
         <v>9948</v>
       </c>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
-      <c r="L69" s="31">
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="28">
         <v>6347771</v>
       </c>
-      <c r="N69" s="48" t="s">
+      <c r="N69" s="39" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B70" s="40" t="s">
+      <c r="B70" s="31" t="s">
         <v>82</v>
       </c>
       <c r="C70" t="s">
@@ -33352,13 +33331,13 @@
         <v>251</v>
       </c>
       <c r="I70" s="7"/>
-      <c r="L70" s="31">
+      <c r="L70" s="28">
         <v>6352164</v>
       </c>
-      <c r="N70" s="46"/>
+      <c r="N70" s="27"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B71" s="40" t="s">
+      <c r="B71" s="31" t="s">
         <v>83</v>
       </c>
       <c r="C71" t="s">
@@ -33371,10 +33350,10 @@
         <v>127</v>
       </c>
       <c r="I71" s="7"/>
-      <c r="N71" s="46"/>
+      <c r="N71" s="27"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="30" t="s">
         <v>84</v>
       </c>
       <c r="C72" t="s">
@@ -33392,17 +33371,17 @@
       <c r="H72" t="s">
         <v>255</v>
       </c>
-      <c r="I72" s="33" t="s">
+      <c r="I72" s="30" t="s">
         <v>9948</v>
       </c>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="N72" s="46" t="s">
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="N72" s="27" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B73" s="40" t="s">
+      <c r="B73" s="31" t="s">
         <v>85</v>
       </c>
       <c r="C73" t="s">
@@ -33418,10 +33397,10 @@
         <v>258</v>
       </c>
       <c r="I73" s="7"/>
-      <c r="N73" s="46"/>
+      <c r="N73" s="27"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="31" t="s">
         <v>86</v>
       </c>
       <c r="C74" t="s">
@@ -33434,10 +33413,10 @@
         <v>168</v>
       </c>
       <c r="I74" s="7"/>
-      <c r="N74" s="46"/>
+      <c r="N74" s="27"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B75" s="40" t="s">
+      <c r="B75" s="31" t="s">
         <v>87</v>
       </c>
       <c r="C75" t="s">
@@ -33450,12 +33429,12 @@
         <v>168</v>
       </c>
       <c r="I75" s="7"/>
-      <c r="N75" s="46" t="s">
+      <c r="N75" s="27" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B76" s="40" t="s">
+      <c r="B76" s="31" t="s">
         <v>88</v>
       </c>
       <c r="C76" t="s">
@@ -33468,10 +33447,10 @@
         <v>168</v>
       </c>
       <c r="I76" s="7"/>
-      <c r="N76" s="46"/>
+      <c r="N76" s="27"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B77" s="40" t="s">
+      <c r="B77" s="31" t="s">
         <v>89</v>
       </c>
       <c r="C77" t="s">
@@ -33484,13 +33463,13 @@
         <v>168</v>
       </c>
       <c r="I77" s="7"/>
-      <c r="L77" s="31">
+      <c r="L77" s="28">
         <v>6380354</v>
       </c>
-      <c r="N77" s="46"/>
+      <c r="N77" s="27"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B78" s="40" t="s">
+      <c r="B78" s="31" t="s">
         <v>90</v>
       </c>
       <c r="C78" t="s">
@@ -33503,7 +33482,7 @@
         <v>127</v>
       </c>
       <c r="I78" s="7"/>
-      <c r="N78" s="46" t="s">
+      <c r="N78" s="27" t="s">
         <v>265</v>
       </c>
     </row>
@@ -33530,7 +33509,7 @@
       <c r="K80" s="2"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B81" s="33" t="s">
+      <c r="B81" s="30" t="s">
         <v>91</v>
       </c>
       <c r="D81" t="s">
@@ -33539,14 +33518,14 @@
       <c r="E81" t="s">
         <v>127</v>
       </c>
-      <c r="I81" s="33" t="s">
+      <c r="I81" s="30" t="s">
         <v>9916</v>
       </c>
-      <c r="J81" s="23"/>
-      <c r="K81" s="23"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
     </row>
     <row r="82" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B82" s="33" t="s">
+      <c r="B82" s="30" t="s">
         <v>92</v>
       </c>
       <c r="C82" t="s">
@@ -33564,18 +33543,18 @@
       <c r="H82" t="s">
         <v>267</v>
       </c>
-      <c r="I82" s="33" t="s">
+      <c r="I82" s="30" t="s">
         <v>9916</v>
       </c>
-      <c r="L82" s="32">
+      <c r="L82" s="29">
         <v>6161017</v>
       </c>
-      <c r="N82" s="45" t="s">
+      <c r="N82" s="38" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B83" s="40" t="s">
+      <c r="B83" s="31" t="s">
         <v>93</v>
       </c>
       <c r="C83" t="s">
@@ -33593,15 +33572,15 @@
       <c r="H83" t="s">
         <v>271</v>
       </c>
-      <c r="L83" s="32">
+      <c r="L83" s="29">
         <v>6161019</v>
       </c>
-      <c r="N83" s="44" t="s">
+      <c r="N83" s="37" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B84" s="40" t="s">
+      <c r="B84" s="31" t="s">
         <v>94</v>
       </c>
       <c r="C84" t="s">
@@ -33619,13 +33598,13 @@
       <c r="H84" t="s">
         <v>274</v>
       </c>
-      <c r="L84" s="27">
+      <c r="L84" s="24">
         <v>5</v>
       </c>
-      <c r="M84" s="31">
+      <c r="M84" s="28">
         <v>2847330</v>
       </c>
-      <c r="N84" s="44"/>
+      <c r="N84" s="37"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
@@ -33650,7 +33629,7 @@
       <c r="K87" s="2"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B88" s="40" t="s">
+      <c r="B88" s="31" t="s">
         <v>95</v>
       </c>
       <c r="C88" t="s">
@@ -33671,7 +33650,7 @@
       <c r="H88" t="s">
         <v>279</v>
       </c>
-      <c r="L88" s="28">
+      <c r="L88" s="25">
         <v>3225640</v>
       </c>
       <c r="N88" t="s">
@@ -33679,7 +33658,7 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B89" s="40" t="s">
+      <c r="B89" s="31" t="s">
         <v>96</v>
       </c>
       <c r="C89" t="s">
@@ -33694,12 +33673,12 @@
       <c r="F89" t="s">
         <v>219</v>
       </c>
-      <c r="L89" s="28">
+      <c r="L89" s="25">
         <v>3008273</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B90" s="40" t="s">
+      <c r="B90" s="31" t="s">
         <v>97</v>
       </c>
       <c r="C90" t="s">
@@ -33714,13 +33693,13 @@
       <c r="G90" t="s">
         <v>97</v>
       </c>
-      <c r="L90" s="27">
+      <c r="L90" s="24">
         <v>6161032</v>
       </c>
-      <c r="N90" s="44"/>
+      <c r="N90" s="37"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B91" s="40" t="s">
+      <c r="B91" s="31" t="s">
         <v>98</v>
       </c>
       <c r="C91" t="s">
@@ -33735,13 +33714,13 @@
       <c r="G91" t="s">
         <v>98</v>
       </c>
-      <c r="L91" s="27">
+      <c r="L91" s="24">
         <v>3226275</v>
       </c>
-      <c r="N91" s="44"/>
+      <c r="N91" s="37"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B92" s="40" t="s">
+      <c r="B92" s="31" t="s">
         <v>99</v>
       </c>
       <c r="C92" t="s">
@@ -33756,13 +33735,13 @@
       <c r="G92" t="s">
         <v>99</v>
       </c>
-      <c r="L92" s="27">
+      <c r="L92" s="24">
         <v>6161035</v>
       </c>
-      <c r="N92" s="44"/>
+      <c r="N92" s="37"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B93" s="40" t="s">
+      <c r="B93" s="31" t="s">
         <v>100</v>
       </c>
       <c r="C93" t="s">
@@ -33777,13 +33756,13 @@
       <c r="G93" t="s">
         <v>100</v>
       </c>
-      <c r="L93" s="28">
+      <c r="L93" s="25">
         <v>6161034</v>
       </c>
-      <c r="N93" s="29"/>
+      <c r="N93" s="26"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B94" s="40" t="s">
+      <c r="B94" s="31" t="s">
         <v>101</v>
       </c>
       <c r="C94" t="s">
@@ -33798,13 +33777,13 @@
       <c r="G94" t="s">
         <v>101</v>
       </c>
-      <c r="L94" s="27">
+      <c r="L94" s="24">
         <v>2785839</v>
       </c>
-      <c r="N94" s="44"/>
+      <c r="N94" s="37"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B95" s="40" t="s">
+      <c r="B95" s="31" t="s">
         <v>102</v>
       </c>
       <c r="C95" t="s">
@@ -33819,13 +33798,13 @@
       <c r="G95" t="s">
         <v>102</v>
       </c>
-      <c r="L95" s="27">
+      <c r="L95" s="24">
         <v>3440328</v>
       </c>
-      <c r="N95" s="44"/>
+      <c r="N95" s="37"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B96" s="40" t="s">
+      <c r="B96" s="31" t="s">
         <v>103</v>
       </c>
       <c r="C96" t="s">
@@ -33840,13 +33819,13 @@
       <c r="G96" t="s">
         <v>103</v>
       </c>
-      <c r="L96" s="27">
+      <c r="L96" s="24">
         <v>3440330</v>
       </c>
-      <c r="N96" s="44"/>
+      <c r="N96" s="37"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B97" s="40" t="s">
+      <c r="B97" s="31" t="s">
         <v>104</v>
       </c>
       <c r="C97" t="s">
@@ -33861,13 +33840,13 @@
       <c r="G97" t="s">
         <v>104</v>
       </c>
-      <c r="L97" s="27">
+      <c r="L97" s="24">
         <v>3440331</v>
       </c>
-      <c r="N97" s="44"/>
+      <c r="N97" s="37"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B98" s="40" t="s">
+      <c r="B98" s="31" t="s">
         <v>105</v>
       </c>
       <c r="C98" t="s">
@@ -33882,13 +33861,13 @@
       <c r="G98" t="s">
         <v>105</v>
       </c>
-      <c r="L98" s="27">
+      <c r="L98" s="24">
         <v>3121376</v>
       </c>
-      <c r="N98" s="44"/>
+      <c r="N98" s="37"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B99" s="40" t="s">
+      <c r="B99" s="31" t="s">
         <v>106</v>
       </c>
       <c r="C99" t="s">
@@ -33904,12 +33883,12 @@
         <v>291</v>
       </c>
       <c r="G99" s="4"/>
-      <c r="L99" s="28">
+      <c r="L99" s="25">
         <v>6154731</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B100" s="40" t="s">
+      <c r="B100" s="31" t="s">
         <v>107</v>
       </c>
       <c r="C100" t="s">
@@ -33925,12 +33904,12 @@
         <v>291</v>
       </c>
       <c r="G100" s="4"/>
-      <c r="L100" s="28">
+      <c r="L100" s="25">
         <v>3008273</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B101" s="40" t="s">
+      <c r="B101" s="31" t="s">
         <v>108</v>
       </c>
       <c r="C101" t="s">
@@ -33945,7 +33924,7 @@
       <c r="G101" t="s">
         <v>108</v>
       </c>
-      <c r="L101" s="28">
+      <c r="L101" s="25">
         <v>5424231</v>
       </c>
     </row>
@@ -33967,7 +33946,7 @@
       <c r="K103" s="2"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B104" s="40" t="s">
+      <c r="B104" s="31" t="s">
         <v>109</v>
       </c>
       <c r="C104" t="s">
@@ -33981,7 +33960,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B105" s="40" t="s">
+      <c r="B105" s="31" t="s">
         <v>110</v>
       </c>
       <c r="C105" t="s">
@@ -33999,13 +33978,13 @@
       <c r="H105" t="s">
         <v>297</v>
       </c>
-      <c r="L105" s="27">
+      <c r="L105" s="24">
         <v>5102381</v>
       </c>
-      <c r="N105" s="44"/>
+      <c r="N105" s="37"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B106" s="40" t="s">
+      <c r="B106" s="31" t="s">
         <v>111</v>
       </c>
       <c r="C106" t="s">
@@ -34023,12 +34002,12 @@
       <c r="H106">
         <v>5</v>
       </c>
-      <c r="L106" s="28">
+      <c r="L106" s="25">
         <v>6154726</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B107" s="40" t="s">
+      <c r="B107" s="31" t="s">
         <v>112</v>
       </c>
       <c r="C107" t="s">
@@ -34046,13 +34025,13 @@
       <c r="H107" t="s">
         <v>300</v>
       </c>
-      <c r="L107" s="27">
+      <c r="L107" s="24">
         <v>5102383</v>
       </c>
-      <c r="N107" s="44"/>
+      <c r="N107" s="37"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B108" s="40" t="s">
+      <c r="B108" s="31" t="s">
         <v>113</v>
       </c>
       <c r="C108" t="s">
@@ -34070,10 +34049,10 @@
       <c r="H108" t="s">
         <v>302</v>
       </c>
-      <c r="L108" s="27">
+      <c r="L108" s="24">
         <v>2975232</v>
       </c>
-      <c r="N108" s="44"/>
+      <c r="N108" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -34968,7 +34947,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C121" s="22"/>
+      <c r="C121" s="11"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
@@ -81077,1662 +81056,1662 @@
       <c r="A9368" t="s">
         <v>100</v>
       </c>
-      <c r="C9368" s="30" t="s">
+      <c r="C9368" s="27" t="s">
         <v>9492</v>
       </c>
     </row>
     <row r="9369" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9369" s="30" t="s">
+      <c r="C9369" s="27" t="s">
         <v>9493</v>
       </c>
     </row>
     <row r="9370" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9370" s="30" t="s">
+      <c r="C9370" s="27" t="s">
         <v>9494</v>
       </c>
     </row>
     <row r="9371" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9371" s="30" t="s">
+      <c r="C9371" s="27" t="s">
         <v>9495</v>
       </c>
     </row>
     <row r="9372" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9372" s="30" t="s">
+      <c r="C9372" s="27" t="s">
         <v>9496</v>
       </c>
     </row>
     <row r="9373" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9373" s="30" t="s">
+      <c r="C9373" s="27" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="9374" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9374" s="30" t="s">
+      <c r="C9374" s="27" t="s">
         <v>9497</v>
       </c>
     </row>
     <row r="9375" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9375" s="30" t="s">
+      <c r="C9375" s="27" t="s">
         <v>9498</v>
       </c>
     </row>
     <row r="9376" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9376" s="30" t="s">
+      <c r="C9376" s="27" t="s">
         <v>9499</v>
       </c>
     </row>
     <row r="9377" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9377" s="30" t="s">
+      <c r="C9377" s="27" t="s">
         <v>9500</v>
       </c>
     </row>
     <row r="9378" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9378" s="30" t="s">
+      <c r="C9378" s="27" t="s">
         <v>9501</v>
       </c>
     </row>
     <row r="9379" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9379" s="30" t="s">
+      <c r="C9379" s="27" t="s">
         <v>9502</v>
       </c>
     </row>
     <row r="9380" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9380" s="30" t="s">
+      <c r="C9380" s="27" t="s">
         <v>9503</v>
       </c>
     </row>
     <row r="9381" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9381" s="30" t="s">
+      <c r="C9381" s="27" t="s">
         <v>9504</v>
       </c>
     </row>
     <row r="9382" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9382" s="30" t="s">
+      <c r="C9382" s="27" t="s">
         <v>9505</v>
       </c>
     </row>
     <row r="9383" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9383" s="30" t="s">
+      <c r="C9383" s="27" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="9384" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9384" s="30" t="s">
+      <c r="C9384" s="27" t="s">
         <v>9506</v>
       </c>
     </row>
     <row r="9385" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9385" s="30" t="s">
+      <c r="C9385" s="27" t="s">
         <v>9507</v>
       </c>
     </row>
     <row r="9386" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9386" s="30" t="s">
+      <c r="C9386" s="27" t="s">
         <v>9508</v>
       </c>
     </row>
     <row r="9387" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9387" s="30" t="s">
+      <c r="C9387" s="27" t="s">
         <v>9509</v>
       </c>
     </row>
     <row r="9388" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9388" s="30" t="s">
+      <c r="C9388" s="27" t="s">
         <v>9510</v>
       </c>
     </row>
     <row r="9389" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9389" s="30" t="s">
+      <c r="C9389" s="27" t="s">
         <v>9511</v>
       </c>
     </row>
     <row r="9390" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9390" s="30" t="s">
+      <c r="C9390" s="27" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="9391" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9391" s="30" t="s">
+      <c r="C9391" s="27" t="s">
         <v>9512</v>
       </c>
     </row>
     <row r="9392" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9392" s="30" t="s">
+      <c r="C9392" s="27" t="s">
         <v>9513</v>
       </c>
     </row>
     <row r="9393" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9393" s="30" t="s">
+      <c r="C9393" s="27" t="s">
         <v>9514</v>
       </c>
     </row>
     <row r="9394" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9394" s="30" t="s">
+      <c r="C9394" s="27" t="s">
         <v>9515</v>
       </c>
     </row>
     <row r="9395" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9395" s="30" t="s">
+      <c r="C9395" s="27" t="s">
         <v>9516</v>
       </c>
     </row>
     <row r="9396" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9396" s="30" t="s">
+      <c r="C9396" s="27" t="s">
         <v>9517</v>
       </c>
     </row>
     <row r="9397" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9397" s="30" t="s">
+      <c r="C9397" s="27" t="s">
         <v>9518</v>
       </c>
     </row>
     <row r="9398" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9398" s="30" t="s">
+      <c r="C9398" s="27" t="s">
         <v>9519</v>
       </c>
     </row>
     <row r="9399" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9399" s="30" t="s">
+      <c r="C9399" s="27" t="s">
         <v>9520</v>
       </c>
     </row>
     <row r="9400" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9400" s="30" t="s">
+      <c r="C9400" s="27" t="s">
         <v>9521</v>
       </c>
     </row>
     <row r="9401" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9401" s="30" t="s">
+      <c r="C9401" s="27" t="s">
         <v>9522</v>
       </c>
     </row>
     <row r="9402" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9402" s="30" t="s">
+      <c r="C9402" s="27" t="s">
         <v>9523</v>
       </c>
     </row>
     <row r="9403" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9403" s="30" t="s">
+      <c r="C9403" s="27" t="s">
         <v>9524</v>
       </c>
     </row>
     <row r="9404" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9404" s="30" t="s">
+      <c r="C9404" s="27" t="s">
         <v>9525</v>
       </c>
     </row>
     <row r="9405" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9405" s="30" t="s">
+      <c r="C9405" s="27" t="s">
         <v>9526</v>
       </c>
     </row>
     <row r="9406" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9406" s="30" t="s">
+      <c r="C9406" s="27" t="s">
         <v>9527</v>
       </c>
     </row>
     <row r="9407" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9407" s="30" t="s">
+      <c r="C9407" s="27" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="9408" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9408" s="30" t="s">
+      <c r="C9408" s="27" t="s">
         <v>9528</v>
       </c>
     </row>
     <row r="9409" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9409" s="30" t="s">
+      <c r="C9409" s="27" t="s">
         <v>9529</v>
       </c>
     </row>
     <row r="9410" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9410" s="30" t="s">
+      <c r="C9410" s="27" t="s">
         <v>9530</v>
       </c>
     </row>
     <row r="9411" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9411" s="30" t="s">
+      <c r="C9411" s="27" t="s">
         <v>4815</v>
       </c>
     </row>
     <row r="9412" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9412" s="30" t="s">
+      <c r="C9412" s="27" t="s">
         <v>9531</v>
       </c>
     </row>
     <row r="9413" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9413" s="30" t="s">
+      <c r="C9413" s="27" t="s">
         <v>9532</v>
       </c>
     </row>
     <row r="9414" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9414" s="30" t="s">
+      <c r="C9414" s="27" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="9415" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9415" s="30" t="s">
+      <c r="C9415" s="27" t="s">
         <v>9533</v>
       </c>
     </row>
     <row r="9416" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9416" s="30" t="s">
+      <c r="C9416" s="27" t="s">
         <v>9534</v>
       </c>
     </row>
     <row r="9417" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9417" s="30" t="s">
+      <c r="C9417" s="27" t="s">
         <v>9535</v>
       </c>
     </row>
     <row r="9418" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9418" s="30" t="s">
+      <c r="C9418" s="27" t="s">
         <v>9536</v>
       </c>
     </row>
     <row r="9419" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9419" s="30" t="s">
+      <c r="C9419" s="27" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="9420" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9420" s="30" t="s">
+      <c r="C9420" s="27" t="s">
         <v>9537</v>
       </c>
     </row>
     <row r="9421" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9421" s="30" t="s">
+      <c r="C9421" s="27" t="s">
         <v>9538</v>
       </c>
     </row>
     <row r="9422" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9422" s="30" t="s">
+      <c r="C9422" s="27" t="s">
         <v>9539</v>
       </c>
     </row>
     <row r="9423" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9423" s="30" t="s">
+      <c r="C9423" s="27" t="s">
         <v>9540</v>
       </c>
     </row>
     <row r="9424" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9424" s="30" t="s">
+      <c r="C9424" s="27" t="s">
         <v>9541</v>
       </c>
     </row>
     <row r="9425" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9425" s="30" t="s">
+      <c r="C9425" s="27" t="s">
         <v>9542</v>
       </c>
     </row>
     <row r="9426" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9426" s="30" t="s">
+      <c r="C9426" s="27" t="s">
         <v>9543</v>
       </c>
     </row>
     <row r="9427" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9427" s="30" t="s">
+      <c r="C9427" s="27" t="s">
         <v>9544</v>
       </c>
     </row>
     <row r="9428" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9428" s="30" t="s">
+      <c r="C9428" s="27" t="s">
         <v>9545</v>
       </c>
     </row>
     <row r="9429" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9429" s="30" t="s">
+      <c r="C9429" s="27" t="s">
         <v>9546</v>
       </c>
     </row>
     <row r="9430" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9430" s="30" t="s">
+      <c r="C9430" s="27" t="s">
         <v>9547</v>
       </c>
     </row>
     <row r="9431" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9431" s="30" t="s">
+      <c r="C9431" s="27" t="s">
         <v>9548</v>
       </c>
     </row>
     <row r="9432" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9432" s="30" t="s">
+      <c r="C9432" s="27" t="s">
         <v>9549</v>
       </c>
     </row>
     <row r="9433" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9433" s="30" t="s">
+      <c r="C9433" s="27" t="s">
         <v>9550</v>
       </c>
     </row>
     <row r="9434" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9434" s="30" t="s">
+      <c r="C9434" s="27" t="s">
         <v>9551</v>
       </c>
     </row>
     <row r="9435" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9435" s="30" t="s">
+      <c r="C9435" s="27" t="s">
         <v>9552</v>
       </c>
     </row>
     <row r="9436" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9436" s="30" t="s">
+      <c r="C9436" s="27" t="s">
         <v>9553</v>
       </c>
     </row>
     <row r="9437" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9437" s="30" t="s">
+      <c r="C9437" s="27" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="9438" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9438" s="30" t="s">
+      <c r="C9438" s="27" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="9439" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9439" s="30" t="s">
+      <c r="C9439" s="27" t="s">
         <v>9554</v>
       </c>
     </row>
     <row r="9440" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9440" s="30" t="s">
+      <c r="C9440" s="27" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="9441" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9441" s="30" t="s">
+      <c r="C9441" s="27" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="9442" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9442" s="30" t="s">
+      <c r="C9442" s="27" t="s">
         <v>9555</v>
       </c>
     </row>
     <row r="9443" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9443" s="30" t="s">
+      <c r="C9443" s="27" t="s">
         <v>9556</v>
       </c>
     </row>
     <row r="9444" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9444" s="30" t="s">
+      <c r="C9444" s="27" t="s">
         <v>9557</v>
       </c>
     </row>
     <row r="9445" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9445" s="30" t="s">
+      <c r="C9445" s="27" t="s">
         <v>9558</v>
       </c>
     </row>
     <row r="9446" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9446" s="30" t="s">
+      <c r="C9446" s="27" t="s">
         <v>9559</v>
       </c>
     </row>
     <row r="9447" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9447" s="30" t="s">
+      <c r="C9447" s="27" t="s">
         <v>9560</v>
       </c>
     </row>
     <row r="9448" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9448" s="30" t="s">
+      <c r="C9448" s="27" t="s">
         <v>9561</v>
       </c>
     </row>
     <row r="9449" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9449" s="30" t="s">
+      <c r="C9449" s="27" t="s">
         <v>9562</v>
       </c>
     </row>
     <row r="9450" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9450" s="30" t="s">
+      <c r="C9450" s="27" t="s">
         <v>9563</v>
       </c>
     </row>
     <row r="9451" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9451" s="30" t="s">
+      <c r="C9451" s="27" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="9452" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9452" s="30" t="s">
+      <c r="C9452" s="27" t="s">
         <v>9564</v>
       </c>
     </row>
     <row r="9453" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9453" s="30" t="s">
+      <c r="C9453" s="27" t="s">
         <v>9565</v>
       </c>
     </row>
     <row r="9454" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9454" s="30" t="s">
+      <c r="C9454" s="27" t="s">
         <v>9566</v>
       </c>
     </row>
     <row r="9455" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9455" s="30" t="s">
+      <c r="C9455" s="27" t="s">
         <v>9567</v>
       </c>
     </row>
     <row r="9456" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9456" s="30" t="s">
+      <c r="C9456" s="27" t="s">
         <v>9568</v>
       </c>
     </row>
     <row r="9457" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9457" s="30" t="s">
+      <c r="C9457" s="27" t="s">
         <v>9569</v>
       </c>
     </row>
     <row r="9458" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9458" s="30" t="s">
+      <c r="C9458" s="27" t="s">
         <v>9570</v>
       </c>
     </row>
     <row r="9459" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9459" s="30" t="s">
+      <c r="C9459" s="27" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="9460" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9460" s="30" t="s">
+      <c r="C9460" s="27" t="s">
         <v>9571</v>
       </c>
     </row>
     <row r="9461" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9461" s="30" t="s">
+      <c r="C9461" s="27" t="s">
         <v>9572</v>
       </c>
     </row>
     <row r="9462" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9462" s="30" t="s">
+      <c r="C9462" s="27" t="s">
         <v>9573</v>
       </c>
     </row>
     <row r="9463" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9463" s="30" t="s">
+      <c r="C9463" s="27" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="9464" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9464" s="30" t="s">
+      <c r="C9464" s="27" t="s">
         <v>9574</v>
       </c>
     </row>
     <row r="9465" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9465" s="30" t="s">
+      <c r="C9465" s="27" t="s">
         <v>9575</v>
       </c>
     </row>
     <row r="9466" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9466" s="30" t="s">
+      <c r="C9466" s="27" t="s">
         <v>9576</v>
       </c>
     </row>
     <row r="9467" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9467" s="30" t="s">
+      <c r="C9467" s="27" t="s">
         <v>9577</v>
       </c>
     </row>
     <row r="9468" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9468" s="30" t="s">
+      <c r="C9468" s="27" t="s">
         <v>9578</v>
       </c>
     </row>
     <row r="9469" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9469" s="30" t="s">
+      <c r="C9469" s="27" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="9470" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9470" s="30" t="s">
+      <c r="C9470" s="27" t="s">
         <v>9579</v>
       </c>
     </row>
     <row r="9471" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9471" s="30" t="s">
+      <c r="C9471" s="27" t="s">
         <v>9580</v>
       </c>
     </row>
     <row r="9472" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9472" s="30" t="s">
+      <c r="C9472" s="27" t="s">
         <v>9581</v>
       </c>
     </row>
     <row r="9473" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9473" s="30" t="s">
+      <c r="C9473" s="27" t="s">
         <v>9582</v>
       </c>
     </row>
     <row r="9474" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9474" s="30" t="s">
+      <c r="C9474" s="27" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="9475" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9475" s="30" t="s">
+      <c r="C9475" s="27" t="s">
         <v>9583</v>
       </c>
     </row>
     <row r="9476" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9476" s="30" t="s">
+      <c r="C9476" s="27" t="s">
         <v>9584</v>
       </c>
     </row>
     <row r="9477" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9477" s="30" t="s">
+      <c r="C9477" s="27" t="s">
         <v>9585</v>
       </c>
     </row>
     <row r="9478" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9478" s="30" t="s">
+      <c r="C9478" s="27" t="s">
         <v>9586</v>
       </c>
     </row>
     <row r="9479" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9479" s="30" t="s">
+      <c r="C9479" s="27" t="s">
         <v>9587</v>
       </c>
     </row>
     <row r="9480" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9480" s="30" t="s">
+      <c r="C9480" s="27" t="s">
         <v>9588</v>
       </c>
     </row>
     <row r="9481" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9481" s="30" t="s">
+      <c r="C9481" s="27" t="s">
         <v>9589</v>
       </c>
     </row>
     <row r="9482" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9482" s="30" t="s">
+      <c r="C9482" s="27" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="9483" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9483" s="30" t="s">
+      <c r="C9483" s="27" t="s">
         <v>9590</v>
       </c>
     </row>
     <row r="9484" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9484" s="30" t="s">
+      <c r="C9484" s="27" t="s">
         <v>9591</v>
       </c>
     </row>
     <row r="9485" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9485" s="30" t="s">
+      <c r="C9485" s="27" t="s">
         <v>9592</v>
       </c>
     </row>
     <row r="9486" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9486" s="30" t="s">
+      <c r="C9486" s="27" t="s">
         <v>9593</v>
       </c>
     </row>
     <row r="9487" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9487" s="30" t="s">
+      <c r="C9487" s="27" t="s">
         <v>9594</v>
       </c>
     </row>
     <row r="9488" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9488" s="30" t="s">
+      <c r="C9488" s="27" t="s">
         <v>9595</v>
       </c>
     </row>
     <row r="9489" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9489" s="30" t="s">
+      <c r="C9489" s="27" t="s">
         <v>9596</v>
       </c>
     </row>
     <row r="9490" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9490" s="30" t="s">
+      <c r="C9490" s="27" t="s">
         <v>9597</v>
       </c>
     </row>
     <row r="9491" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9491" s="30" t="s">
+      <c r="C9491" s="27" t="s">
         <v>9598</v>
       </c>
     </row>
     <row r="9492" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9492" s="30" t="s">
+      <c r="C9492" s="27" t="s">
         <v>9599</v>
       </c>
     </row>
     <row r="9493" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9493" s="30" t="s">
+      <c r="C9493" s="27" t="s">
         <v>9600</v>
       </c>
     </row>
     <row r="9494" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9494" s="30" t="s">
+      <c r="C9494" s="27" t="s">
         <v>9601</v>
       </c>
     </row>
     <row r="9495" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9495" s="30" t="s">
+      <c r="C9495" s="27" t="s">
         <v>9602</v>
       </c>
     </row>
     <row r="9496" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9496" s="30" t="s">
+      <c r="C9496" s="27" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="9497" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9497" s="30" t="s">
+      <c r="C9497" s="27" t="s">
         <v>9603</v>
       </c>
     </row>
     <row r="9498" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9498" s="30" t="s">
+      <c r="C9498" s="27" t="s">
         <v>9604</v>
       </c>
     </row>
     <row r="9499" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9499" s="30" t="s">
+      <c r="C9499" s="27" t="s">
         <v>9605</v>
       </c>
     </row>
     <row r="9500" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9500" s="30" t="s">
+      <c r="C9500" s="27" t="s">
         <v>9606</v>
       </c>
     </row>
     <row r="9501" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9501" s="30" t="s">
+      <c r="C9501" s="27" t="s">
         <v>9607</v>
       </c>
     </row>
     <row r="9502" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9502" s="30" t="s">
+      <c r="C9502" s="27" t="s">
         <v>9608</v>
       </c>
     </row>
     <row r="9503" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9503" s="30" t="s">
+      <c r="C9503" s="27" t="s">
         <v>9609</v>
       </c>
     </row>
     <row r="9504" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9504" s="30" t="s">
+      <c r="C9504" s="27" t="s">
         <v>9610</v>
       </c>
     </row>
     <row r="9505" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9505" s="30" t="s">
+      <c r="C9505" s="27" t="s">
         <v>9611</v>
       </c>
     </row>
     <row r="9506" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9506" s="30" t="s">
+      <c r="C9506" s="27" t="s">
         <v>9612</v>
       </c>
     </row>
     <row r="9507" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9507" s="30" t="s">
+      <c r="C9507" s="27" t="s">
         <v>9613</v>
       </c>
     </row>
     <row r="9508" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9508" s="30" t="s">
+      <c r="C9508" s="27" t="s">
         <v>9614</v>
       </c>
     </row>
     <row r="9509" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9509" s="30" t="s">
+      <c r="C9509" s="27" t="s">
         <v>9615</v>
       </c>
     </row>
     <row r="9510" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9510" s="30" t="s">
+      <c r="C9510" s="27" t="s">
         <v>9616</v>
       </c>
     </row>
     <row r="9511" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9511" s="30" t="s">
+      <c r="C9511" s="27" t="s">
         <v>9617</v>
       </c>
     </row>
     <row r="9512" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9512" s="30" t="s">
+      <c r="C9512" s="27" t="s">
         <v>9618</v>
       </c>
     </row>
     <row r="9513" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9513" s="30" t="s">
+      <c r="C9513" s="27" t="s">
         <v>9619</v>
       </c>
     </row>
     <row r="9514" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9514" s="30" t="s">
+      <c r="C9514" s="27" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="9515" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9515" s="30" t="s">
+      <c r="C9515" s="27" t="s">
         <v>9620</v>
       </c>
     </row>
     <row r="9516" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9516" s="30" t="s">
+      <c r="C9516" s="27" t="s">
         <v>9621</v>
       </c>
     </row>
     <row r="9517" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9517" s="30" t="s">
+      <c r="C9517" s="27" t="s">
         <v>9622</v>
       </c>
     </row>
     <row r="9518" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9518" s="30" t="s">
+      <c r="C9518" s="27" t="s">
         <v>9623</v>
       </c>
     </row>
     <row r="9519" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9519" s="30" t="s">
+      <c r="C9519" s="27" t="s">
         <v>9624</v>
       </c>
     </row>
     <row r="9520" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9520" s="30" t="s">
+      <c r="C9520" s="27" t="s">
         <v>9625</v>
       </c>
     </row>
     <row r="9521" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9521" s="30" t="s">
+      <c r="C9521" s="27" t="s">
         <v>9626</v>
       </c>
     </row>
     <row r="9522" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9522" s="30" t="s">
+      <c r="C9522" s="27" t="s">
         <v>9627</v>
       </c>
     </row>
     <row r="9523" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9523" s="30" t="s">
+      <c r="C9523" s="27" t="s">
         <v>9628</v>
       </c>
     </row>
     <row r="9524" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9524" s="30" t="s">
+      <c r="C9524" s="27" t="s">
         <v>9629</v>
       </c>
     </row>
     <row r="9525" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9525" s="30" t="s">
+      <c r="C9525" s="27" t="s">
         <v>9630</v>
       </c>
     </row>
     <row r="9526" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9526" s="30" t="s">
+      <c r="C9526" s="27" t="s">
         <v>9631</v>
       </c>
     </row>
     <row r="9527" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9527" s="30" t="s">
+      <c r="C9527" s="27" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="9528" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9528" s="30" t="s">
+      <c r="C9528" s="27" t="s">
         <v>9632</v>
       </c>
     </row>
     <row r="9529" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9529" s="30" t="s">
+      <c r="C9529" s="27" t="s">
         <v>9633</v>
       </c>
     </row>
     <row r="9530" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9530" s="30" t="s">
+      <c r="C9530" s="27" t="s">
         <v>9634</v>
       </c>
     </row>
     <row r="9531" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9531" s="30" t="s">
+      <c r="C9531" s="27" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="9532" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9532" s="30" t="s">
+      <c r="C9532" s="27" t="s">
         <v>9635</v>
       </c>
     </row>
     <row r="9533" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9533" s="30" t="s">
+      <c r="C9533" s="27" t="s">
         <v>9636</v>
       </c>
     </row>
     <row r="9534" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9534" s="30" t="s">
+      <c r="C9534" s="27" t="s">
         <v>9637</v>
       </c>
     </row>
     <row r="9535" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9535" s="30" t="s">
+      <c r="C9535" s="27" t="s">
         <v>9638</v>
       </c>
     </row>
     <row r="9536" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9536" s="30" t="s">
+      <c r="C9536" s="27" t="s">
         <v>9639</v>
       </c>
     </row>
     <row r="9537" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9537" s="30" t="s">
+      <c r="C9537" s="27" t="s">
         <v>9640</v>
       </c>
     </row>
     <row r="9538" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9538" s="30" t="s">
+      <c r="C9538" s="27" t="s">
         <v>9641</v>
       </c>
     </row>
     <row r="9539" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9539" s="30" t="s">
+      <c r="C9539" s="27" t="s">
         <v>9642</v>
       </c>
     </row>
     <row r="9540" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9540" s="30" t="s">
+      <c r="C9540" s="27" t="s">
         <v>9643</v>
       </c>
     </row>
     <row r="9541" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9541" s="30" t="s">
+      <c r="C9541" s="27" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="9542" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9542" s="30" t="s">
+      <c r="C9542" s="27" t="s">
         <v>9644</v>
       </c>
     </row>
     <row r="9543" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9543" s="30" t="s">
+      <c r="C9543" s="27" t="s">
         <v>9645</v>
       </c>
     </row>
     <row r="9544" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9544" s="30" t="s">
+      <c r="C9544" s="27" t="s">
         <v>9646</v>
       </c>
     </row>
     <row r="9545" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9545" s="30" t="s">
+      <c r="C9545" s="27" t="s">
         <v>9647</v>
       </c>
     </row>
     <row r="9546" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9546" s="30" t="s">
+      <c r="C9546" s="27" t="s">
         <v>9648</v>
       </c>
     </row>
     <row r="9547" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9547" s="30" t="s">
+      <c r="C9547" s="27" t="s">
         <v>9649</v>
       </c>
     </row>
     <row r="9548" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9548" s="30" t="s">
+      <c r="C9548" s="27" t="s">
         <v>9650</v>
       </c>
     </row>
     <row r="9549" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9549" s="30" t="s">
+      <c r="C9549" s="27" t="s">
         <v>9651</v>
       </c>
     </row>
     <row r="9550" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9550" s="30" t="s">
+      <c r="C9550" s="27" t="s">
         <v>9652</v>
       </c>
     </row>
     <row r="9551" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9551" s="30" t="s">
+      <c r="C9551" s="27" t="s">
         <v>9653</v>
       </c>
     </row>
     <row r="9552" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9552" s="30" t="s">
+      <c r="C9552" s="27" t="s">
         <v>9654</v>
       </c>
     </row>
     <row r="9553" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9553" s="30" t="s">
+      <c r="C9553" s="27" t="s">
         <v>9655</v>
       </c>
     </row>
     <row r="9554" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9554" s="30" t="s">
+      <c r="C9554" s="27" t="s">
         <v>9656</v>
       </c>
     </row>
     <row r="9555" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9555" s="30" t="s">
+      <c r="C9555" s="27" t="s">
         <v>9657</v>
       </c>
     </row>
     <row r="9556" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9556" s="30" t="s">
+      <c r="C9556" s="27" t="s">
         <v>9658</v>
       </c>
     </row>
     <row r="9557" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9557" s="30" t="s">
+      <c r="C9557" s="27" t="s">
         <v>9659</v>
       </c>
     </row>
     <row r="9558" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9558" s="30" t="s">
+      <c r="C9558" s="27" t="s">
         <v>9660</v>
       </c>
     </row>
     <row r="9559" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9559" s="30" t="s">
+      <c r="C9559" s="27" t="s">
         <v>9661</v>
       </c>
     </row>
     <row r="9560" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9560" s="30" t="s">
+      <c r="C9560" s="27" t="s">
         <v>9662</v>
       </c>
     </row>
     <row r="9561" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9561" s="30" t="s">
+      <c r="C9561" s="27" t="s">
         <v>9663</v>
       </c>
     </row>
     <row r="9562" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9562" s="30" t="s">
+      <c r="C9562" s="27" t="s">
         <v>9664</v>
       </c>
     </row>
     <row r="9563" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9563" s="30" t="s">
+      <c r="C9563" s="27" t="s">
         <v>9665</v>
       </c>
     </row>
     <row r="9564" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9564" s="30" t="s">
+      <c r="C9564" s="27" t="s">
         <v>9666</v>
       </c>
     </row>
     <row r="9565" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9565" s="30" t="s">
+      <c r="C9565" s="27" t="s">
         <v>9667</v>
       </c>
     </row>
     <row r="9566" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9566" s="30" t="s">
+      <c r="C9566" s="27" t="s">
         <v>9668</v>
       </c>
     </row>
     <row r="9567" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9567" s="30" t="s">
+      <c r="C9567" s="27" t="s">
         <v>9669</v>
       </c>
     </row>
     <row r="9568" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9568" s="30" t="s">
+      <c r="C9568" s="27" t="s">
         <v>9670</v>
       </c>
     </row>
     <row r="9569" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9569" s="30" t="s">
+      <c r="C9569" s="27" t="s">
         <v>9671</v>
       </c>
     </row>
     <row r="9570" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9570" s="30" t="s">
+      <c r="C9570" s="27" t="s">
         <v>9672</v>
       </c>
     </row>
     <row r="9571" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9571" s="30" t="s">
+      <c r="C9571" s="27" t="s">
         <v>9673</v>
       </c>
     </row>
     <row r="9572" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9572" s="30" t="s">
+      <c r="C9572" s="27" t="s">
         <v>9674</v>
       </c>
     </row>
     <row r="9573" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9573" s="30" t="s">
+      <c r="C9573" s="27" t="s">
         <v>9675</v>
       </c>
     </row>
     <row r="9574" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9574" s="30" t="s">
+      <c r="C9574" s="27" t="s">
         <v>9676</v>
       </c>
     </row>
     <row r="9575" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9575" s="30" t="s">
+      <c r="C9575" s="27" t="s">
         <v>9677</v>
       </c>
     </row>
     <row r="9576" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9576" s="30" t="s">
+      <c r="C9576" s="27" t="s">
         <v>9678</v>
       </c>
     </row>
     <row r="9577" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9577" s="30" t="s">
+      <c r="C9577" s="27" t="s">
         <v>9679</v>
       </c>
     </row>
     <row r="9578" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9578" s="30" t="s">
+      <c r="C9578" s="27" t="s">
         <v>9680</v>
       </c>
     </row>
     <row r="9579" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9579" s="30" t="s">
+      <c r="C9579" s="27" t="s">
         <v>9681</v>
       </c>
     </row>
     <row r="9580" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9580" s="30" t="s">
+      <c r="C9580" s="27" t="s">
         <v>9682</v>
       </c>
     </row>
     <row r="9581" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9581" s="30" t="s">
+      <c r="C9581" s="27" t="s">
         <v>9683</v>
       </c>
     </row>
     <row r="9582" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9582" s="30" t="s">
+      <c r="C9582" s="27" t="s">
         <v>9684</v>
       </c>
     </row>
     <row r="9583" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9583" s="30" t="s">
+      <c r="C9583" s="27" t="s">
         <v>9685</v>
       </c>
     </row>
     <row r="9584" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9584" s="30" t="s">
+      <c r="C9584" s="27" t="s">
         <v>9686</v>
       </c>
     </row>
     <row r="9585" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9585" s="30" t="s">
+      <c r="C9585" s="27" t="s">
         <v>9687</v>
       </c>
     </row>
     <row r="9586" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9586" s="30" t="s">
+      <c r="C9586" s="27" t="s">
         <v>9688</v>
       </c>
     </row>
     <row r="9587" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9587" s="30" t="s">
+      <c r="C9587" s="27" t="s">
         <v>9689</v>
       </c>
     </row>
     <row r="9588" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9588" s="30" t="s">
+      <c r="C9588" s="27" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="9589" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9589" s="30" t="s">
+      <c r="C9589" s="27" t="s">
         <v>9690</v>
       </c>
     </row>
     <row r="9590" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9590" s="30" t="s">
+      <c r="C9590" s="27" t="s">
         <v>9691</v>
       </c>
     </row>
     <row r="9591" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9591" s="30" t="s">
+      <c r="C9591" s="27" t="s">
         <v>9692</v>
       </c>
     </row>
     <row r="9592" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9592" s="30" t="s">
+      <c r="C9592" s="27" t="s">
         <v>9693</v>
       </c>
     </row>
     <row r="9593" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9593" s="30" t="s">
+      <c r="C9593" s="27" t="s">
         <v>9694</v>
       </c>
     </row>
     <row r="9594" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9594" s="30" t="s">
+      <c r="C9594" s="27" t="s">
         <v>9695</v>
       </c>
     </row>
     <row r="9595" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9595" s="30" t="s">
+      <c r="C9595" s="27" t="s">
         <v>9696</v>
       </c>
     </row>
     <row r="9596" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9596" s="30" t="s">
+      <c r="C9596" s="27" t="s">
         <v>9697</v>
       </c>
     </row>
     <row r="9597" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9597" s="30" t="s">
+      <c r="C9597" s="27" t="s">
         <v>9698</v>
       </c>
     </row>
     <row r="9598" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9598" s="30" t="s">
+      <c r="C9598" s="27" t="s">
         <v>9699</v>
       </c>
     </row>
     <row r="9599" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9599" s="30" t="s">
+      <c r="C9599" s="27" t="s">
         <v>9700</v>
       </c>
     </row>
     <row r="9600" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9600" s="30" t="s">
+      <c r="C9600" s="27" t="s">
         <v>9701</v>
       </c>
     </row>
     <row r="9601" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9601" s="30" t="s">
+      <c r="C9601" s="27" t="s">
         <v>9702</v>
       </c>
     </row>
     <row r="9602" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9602" s="30" t="s">
+      <c r="C9602" s="27" t="s">
         <v>9703</v>
       </c>
     </row>
     <row r="9603" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9603" s="30" t="s">
+      <c r="C9603" s="27" t="s">
         <v>9704</v>
       </c>
     </row>
     <row r="9604" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9604" s="30" t="s">
+      <c r="C9604" s="27" t="s">
         <v>9705</v>
       </c>
     </row>
     <row r="9605" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9605" s="30" t="s">
+      <c r="C9605" s="27" t="s">
         <v>9706</v>
       </c>
     </row>
     <row r="9606" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9606" s="30" t="s">
+      <c r="C9606" s="27" t="s">
         <v>9707</v>
       </c>
     </row>
     <row r="9607" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9607" s="30" t="s">
+      <c r="C9607" s="27" t="s">
         <v>9708</v>
       </c>
     </row>
     <row r="9608" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9608" s="30" t="s">
+      <c r="C9608" s="27" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="9609" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9609" s="30" t="s">
+      <c r="C9609" s="27" t="s">
         <v>9709</v>
       </c>
     </row>
     <row r="9610" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9610" s="30" t="s">
+      <c r="C9610" s="27" t="s">
         <v>9710</v>
       </c>
     </row>
     <row r="9611" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9611" s="30" t="s">
+      <c r="C9611" s="27" t="s">
         <v>9711</v>
       </c>
     </row>
     <row r="9612" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9612" s="30" t="s">
+      <c r="C9612" s="27" t="s">
         <v>9712</v>
       </c>
     </row>
     <row r="9613" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9613" s="30" t="s">
+      <c r="C9613" s="27" t="s">
         <v>9713</v>
       </c>
     </row>
     <row r="9614" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9614" s="30" t="s">
+      <c r="C9614" s="27" t="s">
         <v>9714</v>
       </c>
     </row>
     <row r="9615" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9615" s="30" t="s">
+      <c r="C9615" s="27" t="s">
         <v>9715</v>
       </c>
     </row>
     <row r="9616" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9616" s="30" t="s">
+      <c r="C9616" s="27" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="9617" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9617" s="30" t="s">
+      <c r="C9617" s="27" t="s">
         <v>9716</v>
       </c>
     </row>
     <row r="9618" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9618" s="30" t="s">
+      <c r="C9618" s="27" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="9619" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9619" s="30" t="s">
+      <c r="C9619" s="27" t="s">
         <v>9717</v>
       </c>
     </row>
     <row r="9620" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9620" s="30" t="s">
+      <c r="C9620" s="27" t="s">
         <v>9718</v>
       </c>
     </row>
     <row r="9621" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9621" s="30" t="s">
+      <c r="C9621" s="27" t="s">
         <v>9719</v>
       </c>
     </row>
     <row r="9622" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9622" s="30" t="s">
+      <c r="C9622" s="27" t="s">
         <v>9720</v>
       </c>
     </row>
     <row r="9623" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9623" s="30" t="s">
+      <c r="C9623" s="27" t="s">
         <v>9721</v>
       </c>
     </row>
     <row r="9624" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9624" s="30" t="s">
+      <c r="C9624" s="27" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="9625" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9625" s="30" t="s">
+      <c r="C9625" s="27" t="s">
         <v>9722</v>
       </c>
     </row>
     <row r="9626" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9626" s="30" t="s">
+      <c r="C9626" s="27" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="9627" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9627" s="30" t="s">
+      <c r="C9627" s="27" t="s">
         <v>9723</v>
       </c>
     </row>
     <row r="9628" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9628" s="30" t="s">
+      <c r="C9628" s="27" t="s">
         <v>9724</v>
       </c>
     </row>
     <row r="9629" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9629" s="30" t="s">
+      <c r="C9629" s="27" t="s">
         <v>9725</v>
       </c>
     </row>
     <row r="9630" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9630" s="30" t="s">
+      <c r="C9630" s="27" t="s">
         <v>9726</v>
       </c>
     </row>
     <row r="9631" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9631" s="30" t="s">
+      <c r="C9631" s="27" t="s">
         <v>9727</v>
       </c>
     </row>
     <row r="9632" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9632" s="30" t="s">
+      <c r="C9632" s="27" t="s">
         <v>9728</v>
       </c>
     </row>
     <row r="9633" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9633" s="30" t="s">
+      <c r="C9633" s="27" t="s">
         <v>9729</v>
       </c>
     </row>
     <row r="9634" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9634" s="30" t="s">
+      <c r="C9634" s="27" t="s">
         <v>9730</v>
       </c>
     </row>
     <row r="9635" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9635" s="30" t="s">
+      <c r="C9635" s="27" t="s">
         <v>9731</v>
       </c>
     </row>
     <row r="9636" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9636" s="30" t="s">
+      <c r="C9636" s="27" t="s">
         <v>9732</v>
       </c>
     </row>
     <row r="9637" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9637" s="30" t="s">
+      <c r="C9637" s="27" t="s">
         <v>9733</v>
       </c>
     </row>
     <row r="9638" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9638" s="30" t="s">
+      <c r="C9638" s="27" t="s">
         <v>9734</v>
       </c>
     </row>
     <row r="9639" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9639" s="30" t="s">
+      <c r="C9639" s="27" t="s">
         <v>9735</v>
       </c>
     </row>
     <row r="9640" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9640" s="30" t="s">
+      <c r="C9640" s="27" t="s">
         <v>9736</v>
       </c>
     </row>
     <row r="9641" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9641" s="30" t="s">
+      <c r="C9641" s="27" t="s">
         <v>9737</v>
       </c>
     </row>
     <row r="9642" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9642" s="30" t="s">
+      <c r="C9642" s="27" t="s">
         <v>9738</v>
       </c>
     </row>
     <row r="9643" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9643" s="30" t="s">
+      <c r="C9643" s="27" t="s">
         <v>9739</v>
       </c>
     </row>
     <row r="9644" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9644" s="30" t="s">
+      <c r="C9644" s="27" t="s">
         <v>9740</v>
       </c>
     </row>
     <row r="9645" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9645" s="30" t="s">
+      <c r="C9645" s="27" t="s">
         <v>9741</v>
       </c>
     </row>
     <row r="9646" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9646" s="30" t="s">
+      <c r="C9646" s="27" t="s">
         <v>9742</v>
       </c>
     </row>
     <row r="9647" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9647" s="30" t="s">
+      <c r="C9647" s="27" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="9648" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9648" s="30" t="s">
+      <c r="C9648" s="27" t="s">
         <v>9743</v>
       </c>
     </row>
     <row r="9649" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9649" s="30" t="s">
+      <c r="C9649" s="27" t="s">
         <v>9744</v>
       </c>
     </row>
     <row r="9650" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9650" s="30" t="s">
+      <c r="C9650" s="27" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="9651" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9651" s="30" t="s">
+      <c r="C9651" s="27" t="s">
         <v>9745</v>
       </c>
     </row>
     <row r="9652" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9652" s="30" t="s">
+      <c r="C9652" s="27" t="s">
         <v>9746</v>
       </c>
     </row>
     <row r="9653" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9653" s="30" t="s">
+      <c r="C9653" s="27" t="s">
         <v>9747</v>
       </c>
     </row>
     <row r="9654" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9654" s="30" t="s">
+      <c r="C9654" s="27" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="9655" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9655" s="30" t="s">
+      <c r="C9655" s="27" t="s">
         <v>9748</v>
       </c>
     </row>
     <row r="9656" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9656" s="30" t="s">
+      <c r="C9656" s="27" t="s">
         <v>9749</v>
       </c>
     </row>
     <row r="9657" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9657" s="30" t="s">
+      <c r="C9657" s="27" t="s">
         <v>9750</v>
       </c>
     </row>
     <row r="9658" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9658" s="30" t="s">
+      <c r="C9658" s="27" t="s">
         <v>9751</v>
       </c>
     </row>
     <row r="9659" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9659" s="30" t="s">
+      <c r="C9659" s="27" t="s">
         <v>9752</v>
       </c>
     </row>
     <row r="9660" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9660" s="30" t="s">
+      <c r="C9660" s="27" t="s">
         <v>4959</v>
       </c>
     </row>
     <row r="9661" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9661" s="30" t="s">
+      <c r="C9661" s="27" t="s">
         <v>9753</v>
       </c>
     </row>
     <row r="9662" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9662" s="30" t="s">
+      <c r="C9662" s="27" t="s">
         <v>9754</v>
       </c>
     </row>
     <row r="9663" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9663" s="30" t="s">
+      <c r="C9663" s="27" t="s">
         <v>9755</v>
       </c>
     </row>
     <row r="9664" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9664" s="30" t="s">
+      <c r="C9664" s="27" t="s">
         <v>9756</v>
       </c>
     </row>
     <row r="9665" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9665" s="30" t="s">
+      <c r="C9665" s="27" t="s">
         <v>9757</v>
       </c>
     </row>
     <row r="9666" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9666" s="30" t="s">
+      <c r="C9666" s="27" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="9667" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9667" s="30" t="s">
+      <c r="C9667" s="27" t="s">
         <v>9758</v>
       </c>
     </row>
     <row r="9668" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9668" s="30" t="s">
+      <c r="C9668" s="27" t="s">
         <v>9759</v>
       </c>
     </row>
     <row r="9669" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9669" s="30" t="s">
+      <c r="C9669" s="27" t="s">
         <v>9760</v>
       </c>
     </row>
     <row r="9670" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9670" s="30" t="s">
+      <c r="C9670" s="27" t="s">
         <v>9761</v>
       </c>
     </row>
     <row r="9671" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9671" s="30" t="s">
+      <c r="C9671" s="27" t="s">
         <v>9762</v>
       </c>
     </row>
     <row r="9672" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9672" s="30" t="s">
+      <c r="C9672" s="27" t="s">
         <v>9763</v>
       </c>
     </row>
     <row r="9673" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9673" s="30" t="s">
+      <c r="C9673" s="27" t="s">
         <v>9764</v>
       </c>
     </row>
     <row r="9674" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9674" s="30" t="s">
+      <c r="C9674" s="27" t="s">
         <v>9765</v>
       </c>
     </row>
     <row r="9675" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9675" s="30" t="s">
+      <c r="C9675" s="27" t="s">
         <v>9766</v>
       </c>
     </row>
     <row r="9676" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9676" s="30" t="s">
+      <c r="C9676" s="27" t="s">
         <v>9767</v>
       </c>
     </row>
     <row r="9677" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9677" s="30" t="s">
+      <c r="C9677" s="27" t="s">
         <v>9768</v>
       </c>
     </row>
     <row r="9678" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9678" s="30" t="s">
+      <c r="C9678" s="27" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="9679" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9679" s="30" t="s">
+      <c r="C9679" s="27" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="9680" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9680" s="30" t="s">
+      <c r="C9680" s="27" t="s">
         <v>9769</v>
       </c>
     </row>
     <row r="9681" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9681" s="30" t="s">
+      <c r="C9681" s="27" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="9682" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9682" s="30" t="s">
+      <c r="C9682" s="27" t="s">
         <v>9770</v>
       </c>
     </row>
     <row r="9683" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9683" s="30" t="s">
+      <c r="C9683" s="27" t="s">
         <v>9771</v>
       </c>
     </row>
     <row r="9684" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9684" s="30" t="s">
+      <c r="C9684" s="27" t="s">
         <v>9772</v>
       </c>
     </row>
     <row r="9685" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9685" s="30" t="s">
+      <c r="C9685" s="27" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="9686" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9686" s="30" t="s">
+      <c r="C9686" s="27" t="s">
         <v>9773</v>
       </c>
     </row>
     <row r="9687" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9687" s="30" t="s">
+      <c r="C9687" s="27" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="9688" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9688" s="30" t="s">
+      <c r="C9688" s="27" t="s">
         <v>9774</v>
       </c>
     </row>
     <row r="9689" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9689" s="30" t="s">
+      <c r="C9689" s="27" t="s">
         <v>9775</v>
       </c>
     </row>
     <row r="9690" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9690" s="30" t="s">
+      <c r="C9690" s="27" t="s">
         <v>9776</v>
       </c>
     </row>
     <row r="9691" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9691" s="30" t="s">
+      <c r="C9691" s="27" t="s">
         <v>9777</v>
       </c>
     </row>
     <row r="9692" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9692" s="30" t="s">
+      <c r="C9692" s="27" t="s">
         <v>9778</v>
       </c>
     </row>
     <row r="9693" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9693" s="30" t="s">
+      <c r="C9693" s="27" t="s">
         <v>9779</v>
       </c>
     </row>
     <row r="9694" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9694" s="30" t="s">
+      <c r="C9694" s="27" t="s">
         <v>9780</v>
       </c>
     </row>
     <row r="9695" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9695" s="30" t="s">
+      <c r="C9695" s="27" t="s">
         <v>9781</v>
       </c>
     </row>
     <row r="9696" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9696" s="30" t="s">
+      <c r="C9696" s="27" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="9697" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9697" s="30" t="s">
+      <c r="C9697" s="27" t="s">
         <v>9782</v>
       </c>
     </row>
     <row r="9698" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9698" s="30" t="s">
+      <c r="C9698" s="27" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="9699" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9699" s="30" t="s">
+      <c r="C9699" s="27" t="s">
         <v>681</v>
       </c>
     </row>
@@ -82790,12 +82769,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -82990,15 +82966,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F83864-F6D6-4E5E-8AAD-E1E32B706500}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6AF062-5CEC-49D4-82C2-DF1EBA98BD2B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="e90b173b-37e9-4a24-8d1d-2ce602dda436"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c550909f-45ce-45a3-96f7-2c03a0037d02"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -83023,18 +83011,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F6AF062-5CEC-49D4-82C2-DF1EBA98BD2B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F83864-F6D6-4E5E-8AAD-E1E32B706500}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="e90b173b-37e9-4a24-8d1d-2ce602dda436"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c550909f-45ce-45a3-96f7-2c03a0037d02"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>